--- a/Tab2.xlsx
+++ b/Tab2.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58F9B667-D13C-458E-91D8-2F4B7B63F28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattia/Documents/GitHub/indicators_online_material/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99951021-2E33-084A-905D-8FDBAAADD8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USA" sheetId="1" r:id="rId1"/>
@@ -185,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,7 +259,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -270,7 +275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -568,17 +573,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="7" customWidth="1"/>
-    <col min="2" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="7" customWidth="1"/>
+    <col min="2" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -595,7 +598,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -616,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -639,7 +642,7 @@
         <v>0.99021462394183501</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -662,7 +665,7 @@
         <v>1.75474097669342E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -685,7 +688,7 @@
         <v>1.42782550835355E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -708,7 +711,7 @@
         <v>5.5284235864614603E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -731,7 +734,7 @@
         <v>1.22982087163759E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -754,7 +757,7 @@
         <v>7.9874243621244403E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -777,7 +780,7 @@
         <v>7.6377171613213604E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -800,7 +803,7 @@
         <v>0.13972903884232701</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -823,7 +826,7 @@
         <v>6.4806247692173499E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -846,7 +849,7 @@
         <v>0.32846270364288299</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -869,7 +872,7 @@
         <v>2.66148601637345E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -892,7 +895,7 @@
         <v>0.42480246941321598</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -915,7 +918,7 @@
         <v>0.59086074019914803</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -938,7 +941,7 @@
         <v>4.9537931497650603E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -961,7 +964,7 @@
         <v>5.2000548919833101E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -984,7 +987,7 @@
         <v>4.46357931842061E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>3.0822500886427901E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>1.2556483832428101E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>2.6271553935615499E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>0.36527757613891398</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>1.3585056010861501E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>4.8118583095050699E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>3.2203828511419398E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>0.20754082652546699</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>5.8828908185718503E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>0.17974858203664901</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>4.8209392346025101E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>0.138928847476564</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>0.17162500475880699</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>5.2218176991065901E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>0.12753525342518801</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>0.320860293550153</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>4.2288575009907896E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>7.1365727819893294E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>6.1962754969136499E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>2.3780836013495499E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>2.1307406256145401E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>9.7360284425307402E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>8.1127171938473099E-8</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>0.236737703699161</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>5.8354159426772601E-6</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
@@ -1600,13 +1603,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1626,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1644,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>0.40977243525141199</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>2.3049576741591301E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>1.01575185757462E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>0.54165829177265901</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>2.1561362438692899E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>5.6151648407024101E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>9.5623959768882494E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>2.5671986635383799E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>1.0018499394409601E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>0.12884100558144301</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>2.5734118632070798E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>6.7277365563796002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>3.61547884894452E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>1.7072046222837501E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>4.78568370280312E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>2.11602450422323E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>2.6863409503005901E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>0.77844034138941298</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>5.7205045223095501E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>3.3855251193750401E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>1.4115716519193201E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>0.32891350242844197</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>8.6358643123551999E-9</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>0.34166652255416302</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>1.6997114124539599E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>0.61276998431474305</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>6.4999692009934995E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>2.0498449671493301E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>1.0767880607676601E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>2.7889835965503299E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>1.4999164929532899E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>4.4814584418287401E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>2.56779685012615E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>2.9198952838012198E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>1.9680593008956201E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>1.66635476592625E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>1.6994455535422399E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>5.0115932685510798E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>7.3966658799934501E-9</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>0.82887327271588596</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>1.26304868682236E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
@@ -2628,13 +2631,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2651,7 +2654,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -2672,7 +2675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>0.57018996863904803</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>6.8587215643707802E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>5.9995225871080002E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>0.20256198402289399</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>9.9207856830903804E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>2.1785452280185299E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>4.8898414197088798E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>0.67976906991479102</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>1.02990952500084E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>8.4030697128400396E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>5.6014403405244603E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -2948,7 +2951,7 @@
         <v>1.13659206894788E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -2971,7 +2974,7 @@
         <v>2.6332264027727599E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>0.99932237896384601</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>1.00353170043558E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>4.1361772148322702E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -3063,7 +3066,7 @@
         <v>3.4952887998107601E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>2.2981259443236998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>4.0959354889965202E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
@@ -3132,7 +3135,7 @@
         <v>8.1743400398120794E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>4.4167378300301298E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>5.5324239707526797E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>1.74388717498621E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>0.63437562085698396</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -3247,7 +3250,7 @@
         <v>4.1996223495481396E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>1.7002805970378201E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>0.18190185278079901</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -3316,7 +3319,7 @@
         <v>1.8910713461023701E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -3339,7 +3342,7 @@
         <v>7.4462636804012197E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>2.87268719851923E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>0.113396407436646</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>3.1824826557773397E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>9.5350242950815303E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -3454,7 +3457,7 @@
         <v>1.0010946323942001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>6.5397205777850503E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
@@ -3500,7 +3503,7 @@
         <v>0.10816579884208299</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -3523,7 +3526,7 @@
         <v>8.2125310683594702E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
@@ -3546,7 +3549,7 @@
         <v>8.36391555461753E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
@@ -3569,7 +3572,7 @@
         <v>1.09488905635718E-6</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -3592,7 +3595,7 @@
         <v>7.2435135030716094E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
@@ -3615,7 +3618,7 @@
         <v>2.5156026240292698E-12</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
@@ -3656,13 +3659,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3679,7 +3682,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -3700,7 +3703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>1.0147684372185399E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>2.1977075737202301E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>0.31569326959803401</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>0.146592301152461</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -3815,7 +3818,7 @@
         <v>4.01486235230911E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v>2.7104395361643402E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>0.10274004186225701</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>0.44006461318899298</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -3907,7 +3910,7 @@
         <v>0.158966536429065</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -3930,7 +3933,7 @@
         <v>0.60610325656362096</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -3953,7 +3956,7 @@
         <v>7.1049508711363901E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -3976,7 +3979,7 @@
         <v>0.17780058178893399</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -3999,7 +4002,7 @@
         <v>8.6461177823442606E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -4022,7 +4025,7 @@
         <v>0.56440776069128396</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>2.0723674661021201E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -4068,7 +4071,7 @@
         <v>7.14264804942512E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>1.1304879035227399E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>0.32783942822533502</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -4137,7 +4140,7 @@
         <v>8.2542169138974006E-11</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>0.12260438946107501</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>8.1638057832660507E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>0.77931540062837601</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>2.1374588974916901E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -4252,7 +4255,7 @@
         <v>0.20800707733507401</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -4275,7 +4278,7 @@
         <v>2.0798619350851401E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>0.130621456163972</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>3.5617231421022098E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>1.25664721257764E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>0.12392254883932299</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
@@ -4390,7 +4393,7 @@
         <v>0.14976198612007499</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>4.9283431148861596E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
@@ -4436,7 +4439,7 @@
         <v>0.63880210647804003</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -4459,7 +4462,7 @@
         <v>0.120631032464729</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -4482,7 +4485,7 @@
         <v>8.0788211309046405E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>2.6090136843320399E-7</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
@@ -4528,7 +4531,7 @@
         <v>0.296191474653061</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>0.118062618094274</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>2.7686758313187401E-7</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
@@ -4597,7 +4600,7 @@
         <v>4.79604617833652E-7</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -4620,7 +4623,7 @@
         <v>3.6895719295467803E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
@@ -4643,7 +4646,7 @@
         <v>2.9083919267941401E-6</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
@@ -4684,13 +4687,13 @@
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4707,7 +4710,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -4728,7 +4731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -4751,7 +4754,7 @@
         <v>2.5095426018270001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4774,7 +4777,7 @@
         <v>1.5639536385222402E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -4797,7 +4800,7 @@
         <v>2.56713412124835E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>0.139496939129647</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -4843,7 +4846,7 @@
         <v>2.1490061735679699E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -4866,7 +4869,7 @@
         <v>5.3119852168521703E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>0.26342813093955603</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -4912,7 +4915,7 @@
         <v>0.22731741440277201</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -4935,7 +4938,7 @@
         <v>0.120530151364987</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -4958,7 +4961,7 @@
         <v>3.5760671250633699E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -4981,7 +4984,7 @@
         <v>2.3849502677972799E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -5004,7 +5007,7 @@
         <v>0.21057773312448499</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -5027,7 +5030,7 @@
         <v>0.53499244779623201</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -5050,7 +5053,7 @@
         <v>0.103189723124398</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -5073,7 +5076,7 @@
         <v>1.53094711559129E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -5096,7 +5099,7 @@
         <v>5.78353621947859E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -5119,7 +5122,7 @@
         <v>0.52033952011669504</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -5142,7 +5145,7 @@
         <v>7.5607409517693502E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -5165,7 +5168,7 @@
         <v>0.19399064604202301</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -5188,7 +5191,7 @@
         <v>6.0393952660806001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>5.9632981608503097E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
@@ -5234,7 +5237,7 @@
         <v>1.05267962674099E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -5257,7 +5260,7 @@
         <v>0.694912874238238</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -5280,7 +5283,7 @@
         <v>3.52347251493148E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -5303,7 +5306,7 @@
         <v>1.16640591252027E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
@@ -5326,7 +5329,7 @@
         <v>1.03432897004158E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
@@ -5349,7 +5352,7 @@
         <v>0.96356347526299702</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -5372,7 +5375,7 @@
         <v>5.1315437899639597E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -5395,7 +5398,7 @@
         <v>3.9641136549691799E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
@@ -5418,7 +5421,7 @@
         <v>9.3774844108888603E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -5441,7 +5444,7 @@
         <v>0.39993587008156201</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -5464,7 +5467,7 @@
         <v>0.51008544173264003</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -5487,7 +5490,7 @@
         <v>4.3015905353730004E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -5510,7 +5513,7 @@
         <v>7.0279243569131006E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
@@ -5533,7 +5536,7 @@
         <v>0.32545528358792503</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
@@ -5556,7 +5559,7 @@
         <v>2.58063908475814E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
@@ -5579,7 +5582,7 @@
         <v>3.8678658618783602E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
@@ -5602,7 +5605,7 @@
         <v>6.2481418006895103E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -5625,7 +5628,7 @@
         <v>0.30955540462757403</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>1.0633412105781501E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
@@ -5689,13 +5692,13 @@
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5712,7 +5715,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -5733,7 +5736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -5756,7 +5759,7 @@
         <v>0.37146745658194602</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -5779,7 +5782,7 @@
         <v>0.308428902122101</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -5802,7 +5805,7 @@
         <v>0.193960386449024</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -5825,7 +5828,7 @@
         <v>0.62592679689896003</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -5848,7 +5851,7 @@
         <v>3.1353077447854101E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>1.1692785264986599E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>0.92017063890657003</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -5917,7 +5920,7 @@
         <v>0.75084674762632897</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -5940,7 +5943,7 @@
         <v>9.1146598606032497E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -5963,7 +5966,7 @@
         <v>0.38297351522315798</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>9.7718939099970597E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>0.73580688023541296</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>0.68561449416575504</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -6055,7 +6058,7 @@
         <v>2.9310049403820599E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>4.1297651614280199E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -6101,7 +6104,7 @@
         <v>1.7252333069996901E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>0.487341509981285</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -6147,7 +6150,7 @@
         <v>0.93082847979128902</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -6170,7 +6173,7 @@
         <v>4.8872289176322201E-10</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
@@ -6193,7 +6196,7 @@
         <v>0.68807739604464602</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -6216,7 +6219,7 @@
         <v>2.55744522297342E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>9.9814085010812806E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -6262,7 +6265,7 @@
         <v>7.9309287521449306E-8</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -6285,7 +6288,7 @@
         <v>0.194175491132067</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>0.40855597031879998</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -6331,7 +6334,7 @@
         <v>0.14587654871359301</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -6354,7 +6357,7 @@
         <v>4.8477740721284898E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>0.40526782515348703</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -6400,7 +6403,7 @@
         <v>7.21533295685685E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
@@ -6423,7 +6426,7 @@
         <v>0.12275593463423499</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>1.17203908101875E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
@@ -6469,7 +6472,7 @@
         <v>9.3017089301042397E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -6492,7 +6495,7 @@
         <v>0.61416371639248601</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -6515,7 +6518,7 @@
         <v>5.0347503557590196E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -6538,7 +6541,7 @@
         <v>3.3194066981120099E-9</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
@@ -6561,7 +6564,7 @@
         <v>0.50958438287241103</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -6584,7 +6587,7 @@
         <v>0.111698074496849</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
@@ -6607,7 +6610,7 @@
         <v>2.5758141549737201E-8</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
@@ -6630,7 +6633,7 @@
         <v>1.41665283555067E-8</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -6653,7 +6656,7 @@
         <v>0.36807804761170299</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
@@ -6676,7 +6679,7 @@
         <v>2.9098305684932199E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
@@ -6717,13 +6720,13 @@
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6740,7 +6743,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -6761,7 +6764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -6784,7 +6787,7 @@
         <v>0.126547987468828</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -6807,7 +6810,7 @@
         <v>1.31485588316478E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -6830,7 +6833,7 @@
         <v>0.33982398583861201</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -6853,7 +6856,7 @@
         <v>0.53527336523387603</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -6876,7 +6879,7 @@
         <v>0.68354934448277205</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -6899,7 +6902,7 @@
         <v>1.67007029654576E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -6922,7 +6925,7 @@
         <v>2.0827334791521001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -6945,7 +6948,7 @@
         <v>0.70553197701161796</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -6968,7 +6971,7 @@
         <v>0.18941001176389</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -6991,7 +6994,7 @@
         <v>7.31117507108478E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -7014,7 +7017,7 @@
         <v>1.2597199282382899E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -7037,7 +7040,7 @@
         <v>3.5170772489588101E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -7060,7 +7063,7 @@
         <v>0.17467876948723801</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -7083,7 +7086,7 @@
         <v>9.35378325823953E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -7106,7 +7109,7 @@
         <v>6.5747247658980103E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -7129,7 +7132,7 @@
         <v>2.0361397766248599E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>7.2046744441526698E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -7175,7 +7178,7 @@
         <v>4.5714160250545904E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -7198,7 +7201,7 @@
         <v>2.2425697593247198E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
@@ -7221,7 +7224,7 @@
         <v>0.39356087437615001</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>1.0931615750223601E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -7267,7 +7270,7 @@
         <v>2.4296902939662701E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -7290,7 +7293,7 @@
         <v>9.0375139753948106E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -7313,7 +7316,7 @@
         <v>0.94074066731960604</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -7336,7 +7339,7 @@
         <v>4.9312930994798304E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -7359,7 +7362,7 @@
         <v>6.4168660054432503E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -7382,7 +7385,7 @@
         <v>4.5991095707282E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -7405,7 +7408,7 @@
         <v>3.2952023128284599E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -7428,7 +7431,7 @@
         <v>0.29853624266525203</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
@@ -7451,7 +7454,7 @@
         <v>0.34502317149851403</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -7474,7 +7477,7 @@
         <v>6.2162466726205902E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
@@ -7497,7 +7500,7 @@
         <v>3.8053828559108903E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -7520,7 +7523,7 @@
         <v>0.23471240942796601</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -7543,7 +7546,7 @@
         <v>2.65457364355318E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -7566,7 +7569,7 @@
         <v>1.96157165467862E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
@@ -7589,7 +7592,7 @@
         <v>7.0190164432043702E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -7612,7 +7615,7 @@
         <v>0.20942922450840401</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
@@ -7635,7 +7638,7 @@
         <v>1.16498580195229E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
@@ -7658,7 +7661,7 @@
         <v>6.4253965405814805E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -7681,7 +7684,7 @@
         <v>0.23132773869840201</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
@@ -7722,13 +7725,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7745,7 +7748,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -7766,7 +7769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -7789,7 +7792,7 @@
         <v>0.84774072636542996</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -7812,7 +7815,7 @@
         <v>0.105473167958633</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -7835,7 +7838,7 @@
         <v>1.68446331411673E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -7858,7 +7861,7 @@
         <v>0.71676716720176603</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -7881,7 +7884,7 @@
         <v>4.1065606198635298E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -7904,7 +7907,7 @@
         <v>1.2536002192053701E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -7927,7 +7930,7 @@
         <v>0.11557551330487</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -7950,7 +7953,7 @@
         <v>0.84126391118632105</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -7973,7 +7976,7 @@
         <v>2.7996112083937498E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -7996,7 +7999,7 @@
         <v>0.18794993355120099</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -8019,7 +8022,7 @@
         <v>1.8703478854090201E-10</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -8042,7 +8045,7 @@
         <v>0.86804897954383697</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -8065,7 +8068,7 @@
         <v>0.846759476261018</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -8088,7 +8091,7 @@
         <v>3.4973986410486601E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -8111,7 +8114,7 @@
         <v>6.4146287097367194E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -8134,7 +8137,7 @@
         <v>1.6204458844443601E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -8157,7 +8160,7 @@
         <v>0.97313761965553203</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -8180,7 +8183,7 @@
         <v>0.22479948436224101</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -8203,7 +8206,7 @@
         <v>7.3862484910972302E-9</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
@@ -8226,7 +8229,7 @@
         <v>0.72349308781243105</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -8249,7 +8252,7 @@
         <v>2.0260375681740599E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -8272,7 +8275,7 @@
         <v>5.2035690259152501E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -8295,7 +8298,7 @@
         <v>5.5767728425922904E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -8318,7 +8321,7 @@
         <v>0.85834960580830599</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -8341,7 +8344,7 @@
         <v>5.9006371702236299E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -8364,7 +8367,7 @@
         <v>1.1728865478736999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -8387,7 +8390,7 @@
         <v>1.22711890074854E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -8410,7 +8413,7 @@
         <v>0.89405151515311498</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -8433,7 +8436,7 @@
         <v>0.98254675855816198</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
@@ -8456,7 +8459,7 @@
         <v>1.1025189532287399E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -8479,7 +8482,7 @@
         <v>1.61762860387553E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
@@ -8502,7 +8505,7 @@
         <v>8.3167418650814007E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -8525,7 +8528,7 @@
         <v>0.89825784589071</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -8548,7 +8551,7 @@
         <v>4.11295846257615E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -8571,7 +8574,7 @@
         <v>1.05861070202585E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
@@ -8594,7 +8597,7 @@
         <v>9.32468451236729E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -8617,7 +8620,7 @@
         <v>0.24426455995621099</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
@@ -8640,7 +8643,7 @@
         <v>1.64908651160978E-6</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
@@ -8663,7 +8666,7 @@
         <v>2.1929664540155999E-7</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -8686,7 +8689,7 @@
         <v>3.0147698052942401E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
@@ -8709,7 +8712,7 @@
         <v>1.2872806522521801E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
@@ -8746,17 +8749,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78626EFA-4224-40A4-9AB6-7B691FD406E6}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8773,7 +8776,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -8794,7 +8797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -8817,7 +8820,7 @@
         <v>0.58603801923355503</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -8840,7 +8843,7 @@
         <v>0.106104024214192</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -8863,7 +8866,7 @@
         <v>6.5645799463242394E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -8886,7 +8889,7 @@
         <v>0.52525638855992896</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -8909,7 +8912,7 @@
         <v>0.33879859293750098</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -8932,7 +8935,7 @@
         <v>8.3736107884372095E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -8955,7 +8958,7 @@
         <v>0.35210930781841698</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -8978,7 +8981,7 @@
         <v>0.31654427401454899</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -9001,7 +9004,7 @@
         <v>1.56776472625677E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -9024,7 +9027,7 @@
         <v>0.30721205994015999</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -9047,7 +9050,7 @@
         <v>1.9314409676290299E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -9070,7 +9073,7 @@
         <v>3.7804145417519399E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -9093,7 +9096,7 @@
         <v>0.78167804256464202</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -9116,7 +9119,7 @@
         <v>8.3177908737519804E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -9139,7 +9142,7 @@
         <v>9.9541488996758598E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -9162,7 +9165,7 @@
         <v>5.8061610205359E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -9185,7 +9188,7 @@
         <v>8.0342813640839003E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -9208,7 +9211,7 @@
         <v>4.1615224022239399E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -9231,7 +9234,7 @@
         <v>9.3639882479356602E-11</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
@@ -9254,7 +9257,7 @@
         <v>0.66271981482376896</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -9277,7 +9280,7 @@
         <v>1.4505388168394799E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -9300,7 +9303,7 @@
         <v>6.1101081160221699E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -9323,7 +9326,7 @@
         <v>4.5646751132423901E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -9346,7 +9349,7 @@
         <v>0.98481689906549996</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -9369,7 +9372,7 @@
         <v>0.17016450139177899</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -9392,7 +9395,7 @@
         <v>1.9132929829232901E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -9415,7 +9418,7 @@
         <v>1.8338680148941099E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -9438,7 +9441,7 @@
         <v>0.11734601485112001</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -9461,7 +9464,7 @@
         <v>0.27742229628397502</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
@@ -9484,7 +9487,7 @@
         <v>8.4559683111446904E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -9507,7 +9510,7 @@
         <v>4.0333490692260998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
@@ -9530,7 +9533,7 @@
         <v>0.61096828465622399</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -9553,7 +9556,7 @@
         <v>0.22844319177667599</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -9576,7 +9579,7 @@
         <v>1.4148134688424E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -9599,7 +9602,7 @@
         <v>2.27129778195752E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
@@ -9622,7 +9625,7 @@
         <v>2.9892658287953101E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -9645,7 +9648,7 @@
         <v>3.4862301845381499E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
@@ -9668,7 +9671,7 @@
         <v>1.0706169217497401E-8</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
@@ -9691,7 +9694,7 @@
         <v>2.18484308779291E-7</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -9714,7 +9717,7 @@
         <v>0.69555967868554502</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
@@ -9737,7 +9740,7 @@
         <v>2.2644952522122601E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
